--- a/spec/support/validRoVirtualOnlySpreadsheet.xlsx
+++ b/spec/support/validRoVirtualOnlySpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C270F27-6D47-EC44-A7F8-2AA9AFBB99C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E1995A-6A2F-F148-9BF3-FCCCEC9A9DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="4520" windowWidth="37280" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15400" yWindow="460" windowWidth="23000" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="128">
   <si>
     <t>Example</t>
   </si>
@@ -387,10 +387,25 @@
     <t xml:space="preserve">Des Moines, IA </t>
   </si>
   <si>
-    <t>Number of Hearing Days Without Rooms in Date Range</t>
-  </si>
-  <si>
-    <t>Number of Hearing Days with 425 I Rooms Allocated in Date Range</t>
+    <t>Virtual Days</t>
+  </si>
+  <si>
+    <t># of Video Days</t>
+  </si>
+  <si>
+    <t># of Virtual Days</t>
+  </si>
+  <si>
+    <t>Number of Time Slots</t>
+  </si>
+  <si>
+    <t>Length of Time Slots (Minutes)</t>
+  </si>
+  <si>
+    <t>Start Time (Eastern)</t>
+  </si>
+  <si>
+    <t>8:30</t>
   </si>
 </sst>
 </file>
@@ -400,7 +415,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -479,8 +494,45 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,8 +581,38 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -832,56 +914,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
@@ -949,29 +981,160 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FFAAAAAA"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,7 +1142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1058,42 +1221,24 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1106,16 +1251,55 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2328,19 +2512,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -5985,10 +6169,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="73"/>
+      <c r="B1" s="65"/>
       <c r="C1" s="40"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -6086,10 +6270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV97"/>
+  <dimension ref="A1:IV98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6098,21 +6282,23 @@
     <col min="2" max="2" width="23.5" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="46" customWidth="1"/>
-    <col min="5" max="5" width="23" style="67" customWidth="1"/>
-    <col min="6" max="256" width="11" style="46" customWidth="1"/>
+    <col min="5" max="5" width="23" style="58" customWidth="1"/>
+    <col min="6" max="7" width="11" style="46" customWidth="1"/>
+    <col min="8" max="8" width="11" style="85" customWidth="1"/>
+    <col min="9" max="256" width="11" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
       <c r="K1" s="47"/>
@@ -6121,22 +6307,16 @@
       <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="51" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -6144,25 +6324,29 @@
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="55">
-        <v>10</v>
-      </c>
-      <c r="E3" s="65">
-        <v>50</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+    <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>126</v>
+      </c>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -6170,23 +6354,31 @@
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="59">
+    <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="68">
-        <v>24</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="B4" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="82">
+        <v>10</v>
+      </c>
+      <c r="E4" s="83">
+        <v>50</v>
+      </c>
+      <c r="F4" s="83">
+        <v>8</v>
+      </c>
+      <c r="G4" s="83">
+        <v>60</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>127</v>
+      </c>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -6195,22 +6387,28 @@
       <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0</v>
+      </c>
+      <c r="E5" s="59">
+        <v>24</v>
+      </c>
+      <c r="F5" s="29">
         <v>5</v>
       </c>
-      <c r="D5" s="59">
-        <v>0</v>
-      </c>
-      <c r="E5" s="69">
-        <v>7</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="29">
+        <v>30</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
@@ -6219,22 +6417,28 @@
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="59">
+      <c r="A6" s="52"/>
+      <c r="B6" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="51">
         <v>0</v>
       </c>
-      <c r="E6" s="69">
-        <v>4</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="E6" s="60">
+        <v>7</v>
+      </c>
+      <c r="F6" s="29">
+        <v>5</v>
+      </c>
+      <c r="G6" s="29">
+        <v>30</v>
+      </c>
+      <c r="H6" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
@@ -6243,22 +6447,28 @@
       <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="59">
+      <c r="A7" s="53"/>
+      <c r="B7" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="51">
         <v>0</v>
       </c>
-      <c r="E7" s="69">
-        <v>15</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="E7" s="60">
+        <v>4</v>
+      </c>
+      <c r="F7" s="29">
+        <v>5</v>
+      </c>
+      <c r="G7" s="29">
+        <v>30</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -6267,22 +6477,28 @@
       <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="59">
+      <c r="A8" s="54"/>
+      <c r="B8" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="51">
         <v>0</v>
       </c>
-      <c r="E8" s="69">
-        <v>8</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="E8" s="60">
+        <v>15</v>
+      </c>
+      <c r="F8" s="29">
+        <v>5</v>
+      </c>
+      <c r="G8" s="29">
+        <v>30</v>
+      </c>
+      <c r="H8" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
@@ -6291,22 +6507,28 @@
       <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="59">
+      <c r="A9" s="54"/>
+      <c r="B9" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="51">
         <v>0</v>
       </c>
-      <c r="E9" s="69">
-        <v>4</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="E9" s="60">
+        <v>8</v>
+      </c>
+      <c r="F9" s="29">
+        <v>5</v>
+      </c>
+      <c r="G9" s="29">
+        <v>30</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -6315,22 +6537,28 @@
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="59">
+      <c r="A10" s="54"/>
+      <c r="B10" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="51">
         <v>0</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="60">
+        <v>4</v>
+      </c>
+      <c r="F10" s="29">
+        <v>5</v>
+      </c>
+      <c r="G10" s="29">
         <v>30</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="H10" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -6339,22 +6567,28 @@
       <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="59">
+      <c r="A11" s="54"/>
+      <c r="B11" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="51">
         <v>0</v>
       </c>
-      <c r="E11" s="69">
-        <v>41</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="E11" s="60">
+        <v>30</v>
+      </c>
+      <c r="F11" s="29">
+        <v>5</v>
+      </c>
+      <c r="G11" s="29">
+        <v>30</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -6363,22 +6597,28 @@
       <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="59">
+      <c r="A12" s="54"/>
+      <c r="B12" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="51">
         <v>0</v>
       </c>
-      <c r="E12" s="69">
-        <v>25</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="E12" s="60">
+        <v>41</v>
+      </c>
+      <c r="F12" s="29">
+        <v>5</v>
+      </c>
+      <c r="G12" s="29">
+        <v>30</v>
+      </c>
+      <c r="H12" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -6387,22 +6627,28 @@
       <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="59">
+      <c r="A13" s="54"/>
+      <c r="B13" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="51">
         <v>0</v>
       </c>
-      <c r="E13" s="69">
-        <v>23</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="E13" s="60">
+        <v>25</v>
+      </c>
+      <c r="F13" s="29">
+        <v>5</v>
+      </c>
+      <c r="G13" s="29">
+        <v>30</v>
+      </c>
+      <c r="H13" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -6411,22 +6657,28 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="59">
+      <c r="A14" s="54"/>
+      <c r="B14" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="51">
         <v>0</v>
       </c>
-      <c r="E14" s="69">
-        <v>60</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="E14" s="60">
+        <v>23</v>
+      </c>
+      <c r="F14" s="29">
+        <v>5</v>
+      </c>
+      <c r="G14" s="29">
+        <v>30</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
@@ -6435,22 +6687,28 @@
       <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="59">
+      <c r="A15" s="54"/>
+      <c r="B15" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="51">
         <v>0</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="60">
         <v>60</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="F15" s="29">
+        <v>5</v>
+      </c>
+      <c r="G15" s="29">
+        <v>30</v>
+      </c>
+      <c r="H15" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
@@ -6459,22 +6717,28 @@
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="59">
+      <c r="A16" s="54"/>
+      <c r="B16" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="51">
         <v>0</v>
       </c>
-      <c r="E16" s="69">
-        <v>118</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="E16" s="60">
+        <v>60</v>
+      </c>
+      <c r="F16" s="29">
+        <v>5</v>
+      </c>
+      <c r="G16" s="29">
+        <v>30</v>
+      </c>
+      <c r="H16" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -6483,22 +6747,28 @@
       <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="59">
+      <c r="A17" s="54"/>
+      <c r="B17" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="51">
         <v>0</v>
       </c>
-      <c r="E17" s="69">
-        <v>170</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="E17" s="60">
+        <v>118</v>
+      </c>
+      <c r="F17" s="29">
+        <v>5</v>
+      </c>
+      <c r="G17" s="29">
+        <v>30</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
@@ -6507,22 +6777,28 @@
       <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
-      <c r="B18" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="59">
+      <c r="A18" s="54"/>
+      <c r="B18" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="51">
         <v>0</v>
       </c>
-      <c r="E18" s="69">
-        <v>117</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="E18" s="60">
+        <v>170</v>
+      </c>
+      <c r="F18" s="29">
+        <v>5</v>
+      </c>
+      <c r="G18" s="29">
+        <v>30</v>
+      </c>
+      <c r="H18" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
@@ -6531,22 +6807,28 @@
       <c r="N18" s="29"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
-      <c r="B19" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="59">
+      <c r="A19" s="54"/>
+      <c r="B19" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="51">
         <v>0</v>
       </c>
-      <c r="E19" s="69">
-        <v>60</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="E19" s="60">
+        <v>117</v>
+      </c>
+      <c r="F19" s="29">
+        <v>5</v>
+      </c>
+      <c r="G19" s="29">
+        <v>30</v>
+      </c>
+      <c r="H19" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -6555,22 +6837,28 @@
       <c r="N19" s="29"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="59">
+      <c r="A20" s="54"/>
+      <c r="B20" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="51">
         <v>0</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="60">
         <v>60</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="F20" s="29">
+        <v>5</v>
+      </c>
+      <c r="G20" s="29">
+        <v>30</v>
+      </c>
+      <c r="H20" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
@@ -6579,22 +6867,28 @@
       <c r="N20" s="29"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
-      <c r="B21" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="59">
+      <c r="A21" s="54"/>
+      <c r="B21" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="51">
         <v>0</v>
       </c>
-      <c r="E21" s="69">
-        <v>50</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
+      <c r="E21" s="60">
+        <v>60</v>
+      </c>
+      <c r="F21" s="29">
+        <v>5</v>
+      </c>
+      <c r="G21" s="29">
+        <v>30</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
@@ -6603,22 +6897,28 @@
       <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="59">
+      <c r="A22" s="54"/>
+      <c r="B22" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="51">
         <v>0</v>
       </c>
-      <c r="E22" s="69">
-        <v>57</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+      <c r="E22" s="60">
+        <v>50</v>
+      </c>
+      <c r="F22" s="29">
+        <v>5</v>
+      </c>
+      <c r="G22" s="29">
+        <v>30</v>
+      </c>
+      <c r="H22" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
@@ -6627,22 +6927,28 @@
       <c r="N22" s="29"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
-      <c r="B23" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="59">
+      <c r="A23" s="54"/>
+      <c r="B23" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="51">
         <v>0</v>
       </c>
-      <c r="E23" s="69">
-        <v>26</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="E23" s="60">
+        <v>57</v>
+      </c>
+      <c r="F23" s="29">
+        <v>5</v>
+      </c>
+      <c r="G23" s="29">
+        <v>30</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
@@ -6651,22 +6957,28 @@
       <c r="N23" s="29"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
-      <c r="B24" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="59">
+      <c r="A24" s="54"/>
+      <c r="B24" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="51">
         <v>0</v>
       </c>
-      <c r="E24" s="69">
-        <v>83</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="E24" s="60">
+        <v>26</v>
+      </c>
+      <c r="F24" s="29">
+        <v>5</v>
+      </c>
+      <c r="G24" s="29">
+        <v>30</v>
+      </c>
+      <c r="H24" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
@@ -6675,22 +6987,28 @@
       <c r="N24" s="29"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
-      <c r="B25" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="59">
+      <c r="A25" s="54"/>
+      <c r="B25" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="51">
         <v>0</v>
       </c>
-      <c r="E25" s="69">
-        <v>37</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="E25" s="60">
+        <v>83</v>
+      </c>
+      <c r="F25" s="29">
+        <v>5</v>
+      </c>
+      <c r="G25" s="29">
+        <v>30</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -6699,22 +7017,28 @@
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="59">
+      <c r="A26" s="54"/>
+      <c r="B26" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="51">
         <v>0</v>
       </c>
-      <c r="E26" s="69">
-        <v>25</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="E26" s="60">
+        <v>37</v>
+      </c>
+      <c r="F26" s="29">
+        <v>5</v>
+      </c>
+      <c r="G26" s="29">
+        <v>30</v>
+      </c>
+      <c r="H26" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
@@ -6723,22 +7047,28 @@
       <c r="N26" s="29"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
-      <c r="B27" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="59">
+      <c r="A27" s="54"/>
+      <c r="B27" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="51">
         <v>0</v>
       </c>
-      <c r="E27" s="69">
-        <v>60</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="E27" s="60">
+        <v>25</v>
+      </c>
+      <c r="F27" s="29">
+        <v>5</v>
+      </c>
+      <c r="G27" s="29">
+        <v>30</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
@@ -6747,22 +7077,28 @@
       <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
-      <c r="B28" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="59">
+      <c r="A28" s="54"/>
+      <c r="B28" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="51">
         <v>0</v>
       </c>
-      <c r="E28" s="69">
-        <v>39</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="E28" s="60">
+        <v>60</v>
+      </c>
+      <c r="F28" s="29">
+        <v>5</v>
+      </c>
+      <c r="G28" s="29">
+        <v>30</v>
+      </c>
+      <c r="H28" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -6771,22 +7107,28 @@
       <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="59">
+      <c r="A29" s="54"/>
+      <c r="B29" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="51">
         <v>0</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="60">
+        <v>39</v>
+      </c>
+      <c r="F29" s="29">
+        <v>5</v>
+      </c>
+      <c r="G29" s="29">
         <v>30</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="H29" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
@@ -6795,22 +7137,28 @@
       <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
-      <c r="B30" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="58" t="s">
+      <c r="A30" s="54"/>
+      <c r="B30" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="51">
+        <v>0</v>
+      </c>
+      <c r="E30" s="60">
         <v>30</v>
       </c>
-      <c r="D30" s="59">
-        <v>0</v>
-      </c>
-      <c r="E30" s="69">
-        <v>25</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
+      <c r="F30" s="29">
+        <v>5</v>
+      </c>
+      <c r="G30" s="29">
+        <v>30</v>
+      </c>
+      <c r="H30" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
@@ -6819,22 +7167,28 @@
       <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="59">
+      <c r="A31" s="54"/>
+      <c r="B31" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="51">
         <v>0</v>
       </c>
-      <c r="E31" s="69">
-        <v>10</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
+      <c r="E31" s="60">
+        <v>25</v>
+      </c>
+      <c r="F31" s="29">
+        <v>5</v>
+      </c>
+      <c r="G31" s="29">
+        <v>30</v>
+      </c>
+      <c r="H31" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
@@ -6843,22 +7197,28 @@
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
-      <c r="B32" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="59">
+      <c r="A32" s="54"/>
+      <c r="B32" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="51">
         <v>0</v>
       </c>
-      <c r="E32" s="69">
+      <c r="E32" s="60">
+        <v>10</v>
+      </c>
+      <c r="F32" s="29">
         <v>5</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="G32" s="29">
+        <v>30</v>
+      </c>
+      <c r="H32" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
@@ -6867,22 +7227,28 @@
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="59">
+      <c r="A33" s="54"/>
+      <c r="B33" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="51">
         <v>0</v>
       </c>
-      <c r="E33" s="69">
-        <v>19</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
+      <c r="E33" s="60">
+        <v>5</v>
+      </c>
+      <c r="F33" s="29">
+        <v>5</v>
+      </c>
+      <c r="G33" s="29">
+        <v>30</v>
+      </c>
+      <c r="H33" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
@@ -6891,22 +7257,28 @@
       <c r="N33" s="29"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="59">
+      <c r="A34" s="54"/>
+      <c r="B34" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="51">
         <v>0</v>
       </c>
-      <c r="E34" s="69">
-        <v>2</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="E34" s="60">
+        <v>19</v>
+      </c>
+      <c r="F34" s="29">
+        <v>5</v>
+      </c>
+      <c r="G34" s="29">
+        <v>30</v>
+      </c>
+      <c r="H34" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -6915,22 +7287,28 @@
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="59">
+      <c r="A35" s="54"/>
+      <c r="B35" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="51">
         <v>0</v>
       </c>
-      <c r="E35" s="69">
-        <v>0</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="E35" s="60">
+        <v>2</v>
+      </c>
+      <c r="F35" s="29">
+        <v>5</v>
+      </c>
+      <c r="G35" s="29">
+        <v>30</v>
+      </c>
+      <c r="H35" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -6939,22 +7317,28 @@
       <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="59">
+      <c r="A36" s="54"/>
+      <c r="B36" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="51">
         <v>0</v>
       </c>
-      <c r="E36" s="69">
-        <v>3</v>
-      </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="E36" s="60">
+        <v>0</v>
+      </c>
+      <c r="F36" s="29">
+        <v>5</v>
+      </c>
+      <c r="G36" s="29">
+        <v>30</v>
+      </c>
+      <c r="H36" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
@@ -6963,22 +7347,28 @@
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="59">
+      <c r="A37" s="54"/>
+      <c r="B37" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="51">
         <v>0</v>
       </c>
-      <c r="E37" s="69">
-        <v>51</v>
-      </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="E37" s="60">
+        <v>3</v>
+      </c>
+      <c r="F37" s="29">
+        <v>5</v>
+      </c>
+      <c r="G37" s="29">
+        <v>30</v>
+      </c>
+      <c r="H37" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
@@ -6987,22 +7377,28 @@
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="59">
+      <c r="A38" s="54"/>
+      <c r="B38" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="51">
         <v>0</v>
       </c>
-      <c r="E38" s="69">
-        <v>12</v>
-      </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="E38" s="60">
+        <v>51</v>
+      </c>
+      <c r="F38" s="29">
+        <v>5</v>
+      </c>
+      <c r="G38" s="29">
+        <v>30</v>
+      </c>
+      <c r="H38" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -7011,22 +7407,28 @@
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="59">
+      <c r="A39" s="54"/>
+      <c r="B39" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="51">
         <v>0</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="60">
+        <v>12</v>
+      </c>
+      <c r="F39" s="29">
         <v>5</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="G39" s="29">
+        <v>30</v>
+      </c>
+      <c r="H39" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
@@ -7035,22 +7437,28 @@
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
-      <c r="B40" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="59">
+      <c r="A40" s="54"/>
+      <c r="B40" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="51">
         <v>0</v>
       </c>
-      <c r="E40" s="69">
-        <v>2</v>
-      </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="E40" s="60">
+        <v>5</v>
+      </c>
+      <c r="F40" s="29">
+        <v>5</v>
+      </c>
+      <c r="G40" s="29">
+        <v>30</v>
+      </c>
+      <c r="H40" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
@@ -7059,22 +7467,28 @@
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
-      <c r="B41" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="59">
+      <c r="A41" s="54"/>
+      <c r="B41" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="51">
         <v>0</v>
       </c>
-      <c r="E41" s="69">
-        <v>55</v>
-      </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="E41" s="60">
+        <v>2</v>
+      </c>
+      <c r="F41" s="29">
+        <v>5</v>
+      </c>
+      <c r="G41" s="29">
+        <v>30</v>
+      </c>
+      <c r="H41" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
@@ -7083,22 +7497,28 @@
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="59">
+      <c r="A42" s="54"/>
+      <c r="B42" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="51">
         <v>0</v>
       </c>
-      <c r="E42" s="69">
-        <v>53</v>
-      </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="E42" s="60">
+        <v>55</v>
+      </c>
+      <c r="F42" s="29">
+        <v>5</v>
+      </c>
+      <c r="G42" s="29">
+        <v>30</v>
+      </c>
+      <c r="H42" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -7107,22 +7527,28 @@
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
-      <c r="B43" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="59">
+      <c r="A43" s="54"/>
+      <c r="B43" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="51">
         <v>0</v>
       </c>
-      <c r="E43" s="69">
-        <v>35</v>
-      </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="E43" s="60">
+        <v>53</v>
+      </c>
+      <c r="F43" s="29">
+        <v>5</v>
+      </c>
+      <c r="G43" s="29">
+        <v>30</v>
+      </c>
+      <c r="H43" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
@@ -7131,22 +7557,28 @@
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
-      <c r="B44" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="59">
+      <c r="A44" s="54"/>
+      <c r="B44" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="51">
         <v>0</v>
       </c>
-      <c r="E44" s="69">
-        <v>28</v>
-      </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="E44" s="60">
+        <v>35</v>
+      </c>
+      <c r="F44" s="29">
+        <v>5</v>
+      </c>
+      <c r="G44" s="29">
+        <v>30</v>
+      </c>
+      <c r="H44" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -7155,22 +7587,28 @@
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="59">
+      <c r="A45" s="54"/>
+      <c r="B45" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="51">
         <v>0</v>
       </c>
-      <c r="E45" s="69">
-        <v>3</v>
-      </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="E45" s="60">
+        <v>28</v>
+      </c>
+      <c r="F45" s="29">
+        <v>5</v>
+      </c>
+      <c r="G45" s="29">
+        <v>30</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
@@ -7179,22 +7617,28 @@
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62"/>
-      <c r="B46" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="59">
+      <c r="A46" s="54"/>
+      <c r="B46" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="51">
         <v>0</v>
       </c>
-      <c r="E46" s="69">
-        <v>33</v>
-      </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+      <c r="E46" s="60">
+        <v>3</v>
+      </c>
+      <c r="F46" s="29">
+        <v>5</v>
+      </c>
+      <c r="G46" s="29">
+        <v>30</v>
+      </c>
+      <c r="H46" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -7203,22 +7647,28 @@
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
-      <c r="B47" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="59">
+      <c r="A47" s="54"/>
+      <c r="B47" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="51">
         <v>0</v>
       </c>
-      <c r="E47" s="69">
-        <v>90</v>
-      </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+      <c r="E47" s="60">
+        <v>33</v>
+      </c>
+      <c r="F47" s="29">
+        <v>5</v>
+      </c>
+      <c r="G47" s="29">
+        <v>30</v>
+      </c>
+      <c r="H47" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
@@ -7227,22 +7677,28 @@
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="62"/>
-      <c r="B48" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="59">
+      <c r="A48" s="54"/>
+      <c r="B48" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="51">
         <v>0</v>
       </c>
-      <c r="E48" s="69">
-        <v>32</v>
-      </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
+      <c r="E48" s="60">
+        <v>90</v>
+      </c>
+      <c r="F48" s="29">
+        <v>5</v>
+      </c>
+      <c r="G48" s="29">
+        <v>30</v>
+      </c>
+      <c r="H48" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
@@ -7251,22 +7707,28 @@
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
-      <c r="B49" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="59">
+      <c r="A49" s="54"/>
+      <c r="B49" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="51">
         <v>0</v>
       </c>
-      <c r="E49" s="69">
-        <v>35</v>
-      </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
+      <c r="E49" s="60">
+        <v>32</v>
+      </c>
+      <c r="F49" s="29">
+        <v>5</v>
+      </c>
+      <c r="G49" s="29">
+        <v>30</v>
+      </c>
+      <c r="H49" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I49" s="29"/>
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
@@ -7275,22 +7737,28 @@
       <c r="N49" s="29"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62"/>
-      <c r="B50" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="59">
+      <c r="A50" s="54"/>
+      <c r="B50" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="51">
         <v>0</v>
       </c>
-      <c r="E50" s="69">
-        <v>8</v>
-      </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
+      <c r="E50" s="60">
+        <v>35</v>
+      </c>
+      <c r="F50" s="29">
+        <v>5</v>
+      </c>
+      <c r="G50" s="29">
+        <v>30</v>
+      </c>
+      <c r="H50" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -7299,22 +7767,28 @@
       <c r="N50" s="29"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62"/>
-      <c r="B51" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="59">
+      <c r="A51" s="54"/>
+      <c r="B51" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="51">
         <v>0</v>
       </c>
-      <c r="E51" s="69">
-        <v>16</v>
-      </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="E51" s="60">
+        <v>8</v>
+      </c>
+      <c r="F51" s="29">
+        <v>5</v>
+      </c>
+      <c r="G51" s="29">
+        <v>30</v>
+      </c>
+      <c r="H51" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I51" s="29"/>
       <c r="J51" s="29"/>
       <c r="K51" s="29"/>
@@ -7323,22 +7797,28 @@
       <c r="N51" s="29"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62"/>
-      <c r="B52" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="59">
+      <c r="A52" s="54"/>
+      <c r="B52" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="51">
         <v>0</v>
       </c>
-      <c r="E52" s="69">
-        <v>15</v>
-      </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="E52" s="60">
+        <v>16</v>
+      </c>
+      <c r="F52" s="29">
+        <v>5</v>
+      </c>
+      <c r="G52" s="29">
+        <v>30</v>
+      </c>
+      <c r="H52" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
@@ -7347,22 +7827,28 @@
       <c r="N52" s="29"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62"/>
-      <c r="B53" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="59">
+      <c r="A53" s="54"/>
+      <c r="B53" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="51">
         <v>0</v>
       </c>
-      <c r="E53" s="69">
-        <v>1</v>
-      </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="E53" s="60">
+        <v>15</v>
+      </c>
+      <c r="F53" s="29">
+        <v>5</v>
+      </c>
+      <c r="G53" s="29">
+        <v>30</v>
+      </c>
+      <c r="H53" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
@@ -7371,22 +7857,28 @@
       <c r="N53" s="29"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="62"/>
-      <c r="B54" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="59">
+      <c r="A54" s="54"/>
+      <c r="B54" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="51">
         <v>0</v>
       </c>
-      <c r="E54" s="69">
-        <v>10</v>
-      </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="E54" s="60">
+        <v>1</v>
+      </c>
+      <c r="F54" s="29">
+        <v>5</v>
+      </c>
+      <c r="G54" s="29">
+        <v>30</v>
+      </c>
+      <c r="H54" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
@@ -7395,22 +7887,28 @@
       <c r="N54" s="29"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
-      <c r="B55" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="59">
+      <c r="A55" s="54"/>
+      <c r="B55" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="51">
         <v>0</v>
       </c>
-      <c r="E55" s="69">
-        <v>166</v>
-      </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="E55" s="60">
+        <v>10</v>
+      </c>
+      <c r="F55" s="29">
+        <v>5</v>
+      </c>
+      <c r="G55" s="29">
+        <v>30</v>
+      </c>
+      <c r="H55" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
@@ -7419,22 +7917,28 @@
       <c r="N55" s="29"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
-      <c r="B56" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="59">
+      <c r="A56" s="54"/>
+      <c r="B56" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="51">
         <v>0</v>
       </c>
-      <c r="E56" s="69">
-        <v>3</v>
-      </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
+      <c r="E56" s="60">
+        <v>166</v>
+      </c>
+      <c r="F56" s="29">
+        <v>5</v>
+      </c>
+      <c r="G56" s="29">
+        <v>30</v>
+      </c>
+      <c r="H56" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -7443,22 +7947,28 @@
       <c r="N56" s="29"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
-      <c r="B57" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="59">
+      <c r="A57" s="54"/>
+      <c r="B57" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="51">
         <v>0</v>
       </c>
-      <c r="E57" s="69">
-        <v>6</v>
-      </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
+      <c r="E57" s="60">
+        <v>3</v>
+      </c>
+      <c r="F57" s="29">
+        <v>5</v>
+      </c>
+      <c r="G57" s="29">
+        <v>30</v>
+      </c>
+      <c r="H57" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I57" s="29"/>
       <c r="J57" s="29"/>
       <c r="K57" s="29"/>
@@ -7467,22 +7977,28 @@
       <c r="N57" s="29"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
-      <c r="B58" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="59">
+      <c r="A58" s="54"/>
+      <c r="B58" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="51">
         <v>0</v>
       </c>
-      <c r="E58" s="69">
-        <v>25</v>
-      </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
+      <c r="E58" s="60">
+        <v>6</v>
+      </c>
+      <c r="F58" s="29">
+        <v>5</v>
+      </c>
+      <c r="G58" s="29">
+        <v>30</v>
+      </c>
+      <c r="H58" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
@@ -7491,14 +8007,28 @@
       <c r="N58" s="29"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="51">
+        <v>0</v>
+      </c>
+      <c r="E59" s="60">
+        <v>25</v>
+      </c>
+      <c r="F59" s="29">
+        <v>5</v>
+      </c>
+      <c r="G59" s="29">
+        <v>30</v>
+      </c>
+      <c r="H59" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I59" s="29"/>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
@@ -7507,14 +8037,14 @@
       <c r="N59" s="29"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="62"/>
-      <c r="B60" s="40"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="29"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="66"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="57"/>
       <c r="F60" s="29"/>
       <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="H60" s="25"/>
       <c r="I60" s="29"/>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
@@ -7523,14 +8053,14 @@
       <c r="N60" s="29"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="40"/>
       <c r="C61" s="29"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="66"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="57"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="H61" s="25"/>
       <c r="I61" s="29"/>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -7539,14 +8069,14 @@
       <c r="N61" s="29"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="40"/>
       <c r="C62" s="29"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="66"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="57"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="H62" s="25"/>
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
@@ -7555,14 +8085,14 @@
       <c r="N62" s="29"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="62"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="40"/>
       <c r="C63" s="29"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="66"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="57"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="H63" s="25"/>
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
@@ -7571,14 +8101,14 @@
       <c r="N63" s="29"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="62"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="40"/>
       <c r="C64" s="29"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="66"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
+      <c r="H64" s="25"/>
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
@@ -7587,14 +8117,14 @@
       <c r="N64" s="29"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="62"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="40"/>
       <c r="C65" s="29"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="66"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="57"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
+      <c r="H65" s="25"/>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
@@ -7603,14 +8133,14 @@
       <c r="N65" s="29"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="40"/>
       <c r="C66" s="29"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="66"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="57"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
+      <c r="H66" s="25"/>
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
@@ -7619,14 +8149,14 @@
       <c r="N66" s="29"/>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="62"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="40"/>
       <c r="C67" s="29"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="66"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="57"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
       <c r="K67" s="29"/>
@@ -7635,14 +8165,14 @@
       <c r="N67" s="29"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="62"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="40"/>
       <c r="C68" s="29"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="66"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="57"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
@@ -7651,14 +8181,14 @@
       <c r="N68" s="29"/>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="62"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="40"/>
       <c r="C69" s="29"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="66"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="57"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
@@ -7667,14 +8197,14 @@
       <c r="N69" s="29"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="62"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="40"/>
       <c r="C70" s="29"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="66"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="57"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
@@ -7683,14 +8213,14 @@
       <c r="N70" s="29"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="62"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="40"/>
       <c r="C71" s="29"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="66"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="57"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
+      <c r="H71" s="25"/>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
@@ -7699,14 +8229,14 @@
       <c r="N71" s="29"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="62"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="40"/>
       <c r="C72" s="29"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="66"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="57"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
+      <c r="H72" s="25"/>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
@@ -7715,14 +8245,14 @@
       <c r="N72" s="29"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="62"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="40"/>
       <c r="C73" s="29"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="66"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="57"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
+      <c r="H73" s="25"/>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
@@ -7731,14 +8261,14 @@
       <c r="N73" s="29"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="62"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="40"/>
       <c r="C74" s="29"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="66"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="57"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
+      <c r="H74" s="25"/>
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
@@ -7747,14 +8277,14 @@
       <c r="N74" s="29"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="62"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="40"/>
       <c r="C75" s="29"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="66"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="57"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
+      <c r="H75" s="25"/>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
       <c r="K75" s="29"/>
@@ -7763,14 +8293,14 @@
       <c r="N75" s="29"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="62"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="40"/>
       <c r="C76" s="29"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="66"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="57"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
+      <c r="H76" s="25"/>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
@@ -7779,14 +8309,14 @@
       <c r="N76" s="29"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="62"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="40"/>
       <c r="C77" s="29"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="66"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="57"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
+      <c r="H77" s="25"/>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
@@ -7795,14 +8325,14 @@
       <c r="N77" s="29"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="62"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="40"/>
       <c r="C78" s="29"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="66"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="57"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
+      <c r="H78" s="25"/>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
@@ -7811,14 +8341,14 @@
       <c r="N78" s="29"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="62"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="40"/>
       <c r="C79" s="29"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="66"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="57"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
+      <c r="H79" s="25"/>
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
       <c r="K79" s="29"/>
@@ -7827,14 +8357,14 @@
       <c r="N79" s="29"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="62"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="40"/>
       <c r="C80" s="29"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="66"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="57"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
+      <c r="H80" s="25"/>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
@@ -7843,14 +8373,14 @@
       <c r="N80" s="29"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="62"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="40"/>
       <c r="C81" s="29"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="66"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="57"/>
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
+      <c r="H81" s="25"/>
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
       <c r="K81" s="29"/>
@@ -7859,14 +8389,14 @@
       <c r="N81" s="29"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="62"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="40"/>
       <c r="C82" s="29"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="66"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="57"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
+      <c r="H82" s="25"/>
       <c r="I82" s="29"/>
       <c r="J82" s="29"/>
       <c r="K82" s="29"/>
@@ -7875,14 +8405,14 @@
       <c r="N82" s="29"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="62"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="40"/>
       <c r="C83" s="29"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="66"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="57"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
+      <c r="H83" s="25"/>
       <c r="I83" s="29"/>
       <c r="J83" s="29"/>
       <c r="K83" s="29"/>
@@ -7891,14 +8421,14 @@
       <c r="N83" s="29"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="62"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="40"/>
       <c r="C84" s="29"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="66"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="57"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
+      <c r="H84" s="25"/>
       <c r="I84" s="29"/>
       <c r="J84" s="29"/>
       <c r="K84" s="29"/>
@@ -7907,14 +8437,14 @@
       <c r="N84" s="29"/>
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="62"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="40"/>
       <c r="C85" s="29"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="66"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="57"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
+      <c r="H85" s="25"/>
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
       <c r="K85" s="29"/>
@@ -7923,14 +8453,14 @@
       <c r="N85" s="29"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="62"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="40"/>
       <c r="C86" s="29"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="66"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="57"/>
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
+      <c r="H86" s="25"/>
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
       <c r="K86" s="29"/>
@@ -7939,14 +8469,14 @@
       <c r="N86" s="29"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="62"/>
+      <c r="A87" s="54"/>
       <c r="B87" s="40"/>
       <c r="C87" s="29"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="66"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="57"/>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
+      <c r="H87" s="25"/>
       <c r="I87" s="29"/>
       <c r="J87" s="29"/>
       <c r="K87" s="29"/>
@@ -7955,14 +8485,14 @@
       <c r="N87" s="29"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="62"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="40"/>
       <c r="C88" s="29"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="66"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="57"/>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
+      <c r="H88" s="25"/>
       <c r="I88" s="29"/>
       <c r="J88" s="29"/>
       <c r="K88" s="29"/>
@@ -7971,14 +8501,14 @@
       <c r="N88" s="29"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="62"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="40"/>
       <c r="C89" s="29"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="66"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="57"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
+      <c r="H89" s="25"/>
       <c r="I89" s="29"/>
       <c r="J89" s="29"/>
       <c r="K89" s="29"/>
@@ -7987,14 +8517,14 @@
       <c r="N89" s="29"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="62"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="40"/>
       <c r="C90" s="29"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="66"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="57"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
+      <c r="H90" s="25"/>
       <c r="I90" s="29"/>
       <c r="J90" s="29"/>
       <c r="K90" s="29"/>
@@ -8003,14 +8533,14 @@
       <c r="N90" s="29"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="62"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="40"/>
       <c r="C91" s="29"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="66"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="57"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
+      <c r="H91" s="25"/>
       <c r="I91" s="29"/>
       <c r="J91" s="29"/>
       <c r="K91" s="29"/>
@@ -8019,14 +8549,14 @@
       <c r="N91" s="29"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="62"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="40"/>
       <c r="C92" s="29"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="66"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="57"/>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
+      <c r="H92" s="25"/>
       <c r="I92" s="29"/>
       <c r="J92" s="29"/>
       <c r="K92" s="29"/>
@@ -8035,14 +8565,14 @@
       <c r="N92" s="29"/>
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="62"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="40"/>
       <c r="C93" s="29"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="66"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="57"/>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
+      <c r="H93" s="25"/>
       <c r="I93" s="29"/>
       <c r="J93" s="29"/>
       <c r="K93" s="29"/>
@@ -8051,14 +8581,14 @@
       <c r="N93" s="29"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="62"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="40"/>
       <c r="C94" s="29"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="66"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="57"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
+      <c r="H94" s="25"/>
       <c r="I94" s="29"/>
       <c r="J94" s="29"/>
       <c r="K94" s="29"/>
@@ -8067,14 +8597,14 @@
       <c r="N94" s="29"/>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="62"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="40"/>
       <c r="C95" s="29"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="66"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="57"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
+      <c r="H95" s="25"/>
       <c r="I95" s="29"/>
       <c r="J95" s="29"/>
       <c r="K95" s="29"/>
@@ -8083,14 +8613,14 @@
       <c r="N95" s="29"/>
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="62"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="40"/>
       <c r="C96" s="29"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="66"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="57"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
+      <c r="H96" s="25"/>
       <c r="I96" s="29"/>
       <c r="J96" s="29"/>
       <c r="K96" s="29"/>
@@ -8099,14 +8629,14 @@
       <c r="N96" s="29"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="64"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="40"/>
       <c r="C97" s="29"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="66"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="57"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
+      <c r="H97" s="25"/>
       <c r="I97" s="29"/>
       <c r="J97" s="29"/>
       <c r="K97" s="29"/>
@@ -8114,9 +8644,26 @@
       <c r="M97" s="29"/>
       <c r="N97" s="29"/>
     </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="56"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
